--- a/xls/ČVUT-Fakulta strojní_Predatory.xlsx
+++ b/xls/ČVUT-Fakulta strojní_Predatory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="88">
   <si>
     <t>YEAR</t>
   </si>
@@ -73,6 +73,12 @@
     <t>VO</t>
   </si>
   <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
+  </si>
+  <si>
     <t>Jsc</t>
   </si>
   <si>
@@ -248,6 +254,30 @@
   </si>
   <si>
     <t>ČVUT-České vysoké učení technické v Praze</t>
+  </si>
+  <si>
+    <t>JQ</t>
+  </si>
+  <si>
+    <t>JI</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering and Technology </t>
+  </si>
+  <si>
+    <t>Natural Sciences</t>
   </si>
 </sst>
 </file>
@@ -618,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -629,7 +659,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,13 +717,19 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>0.40000001</v>
@@ -702,54 +738,60 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P2">
         <v>68407700</v>
       </c>
       <c r="Q2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="T2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>2013</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>0.05299999900000001</v>
@@ -758,57 +800,63 @@
         <v>2.391</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P3">
         <v>68407700</v>
       </c>
       <c r="Q3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="T3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>2015</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>0.2857143</v>
@@ -817,54 +865,60 @@
         <v>4.3545108</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P4">
         <v>68407700</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="T4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>2014</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>0.22222222</v>
@@ -873,54 +927,60 @@
         <v>3.6875677</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P5">
         <v>68407700</v>
       </c>
       <c r="Q5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="T5" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>2014</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>0.33333334</v>
@@ -929,54 +989,60 @@
         <v>5.5313516</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P6">
         <v>68407700</v>
       </c>
       <c r="Q6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="T6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>2014</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>0.2857143</v>
@@ -985,54 +1051,60 @@
         <v>4.7411585</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P7">
         <v>68407700</v>
       </c>
       <c r="Q7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="T7" t="s">
+        <v>82</v>
+      </c>
+      <c r="U7" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>2014</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1041,57 +1113,63 @@
         <v>11.818316</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P8">
         <v>68407700</v>
       </c>
       <c r="Q8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="T8" t="s">
+        <v>84</v>
+      </c>
+      <c r="U8" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>2013</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>0.40000001</v>
@@ -1100,54 +1178,60 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P9">
         <v>68407700</v>
       </c>
       <c r="Q9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="T9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>2011</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>0.75</v>
@@ -1156,54 +1240,60 @@
         <v>27.482</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P10">
         <v>68407700</v>
       </c>
       <c r="Q10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="T10" t="s">
+        <v>85</v>
+      </c>
+      <c r="U10" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>2011</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>0.8888889000000001</v>
@@ -1212,49 +1302,55 @@
         <v>13.605</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P11">
         <v>68407700</v>
       </c>
       <c r="Q11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="T11" t="s">
+        <v>80</v>
+      </c>
+      <c r="U11" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
